--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_64ha_100ha_14%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_64ha_100ha_14%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -3452,28 +3452,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3468.507180815254</v>
+        <v>3624.639103029394</v>
       </c>
       <c r="AB2" t="n">
-        <v>4745.764544528929</v>
+        <v>4959.391128556603</v>
       </c>
       <c r="AC2" t="n">
-        <v>4292.83543712128</v>
+        <v>4486.073799796138</v>
       </c>
       <c r="AD2" t="n">
-        <v>3468507.180815254</v>
+        <v>3624639.103029395</v>
       </c>
       <c r="AE2" t="n">
-        <v>4745764.544528929</v>
+        <v>4959391.128556603</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.048201876724591e-07</v>
+        <v>1.191533497760451e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.74782986111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>4292835.43712128</v>
+        <v>4486073.799796138</v>
       </c>
     </row>
     <row r="3">
@@ -3558,28 +3558,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1641.960108757472</v>
+        <v>1735.605215252678</v>
       </c>
       <c r="AB3" t="n">
-        <v>2246.602258969542</v>
+        <v>2374.731625006807</v>
       </c>
       <c r="AC3" t="n">
-        <v>2032.189692499562</v>
+        <v>2148.090571672926</v>
       </c>
       <c r="AD3" t="n">
-        <v>1641960.108757472</v>
+        <v>1735605.215252678</v>
       </c>
       <c r="AE3" t="n">
-        <v>2246602.258969542</v>
+        <v>2374731.625006807</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.112549656418734e-06</v>
+        <v>1.880820394663337e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.21180555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>2032189.692499562</v>
+        <v>2148090.571672926</v>
       </c>
     </row>
     <row r="4">
@@ -3664,28 +3664,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1311.806993025818</v>
+        <v>1405.366669157902</v>
       </c>
       <c r="AB4" t="n">
-        <v>1794.872200697996</v>
+        <v>1922.884677143516</v>
       </c>
       <c r="AC4" t="n">
-        <v>1623.572116982334</v>
+        <v>1739.367262342533</v>
       </c>
       <c r="AD4" t="n">
-        <v>1311806.993025818</v>
+        <v>1405366.669157902</v>
       </c>
       <c r="AE4" t="n">
-        <v>1794872.200697996</v>
+        <v>1922884.677143516</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.269964789074154e-06</v>
+        <v>2.1469384867582e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.95486111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>1623572.116982334</v>
+        <v>1739367.262342533</v>
       </c>
     </row>
     <row r="5">
@@ -3770,28 +3770,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1169.574658201676</v>
+        <v>1252.805190983751</v>
       </c>
       <c r="AB5" t="n">
-        <v>1600.263645343849</v>
+        <v>1714.143332168243</v>
       </c>
       <c r="AC5" t="n">
-        <v>1447.536729016364</v>
+        <v>1550.547898361382</v>
       </c>
       <c r="AD5" t="n">
-        <v>1169574.658201676</v>
+        <v>1252805.190983751</v>
       </c>
       <c r="AE5" t="n">
-        <v>1600263.645343849</v>
+        <v>1714143.332168243</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.353807487250054e-06</v>
+        <v>2.288678727980731e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.96744791666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1447536.729016364</v>
+        <v>1550547.898361382</v>
       </c>
     </row>
     <row r="6">
@@ -3876,28 +3876,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1091.920765974037</v>
+        <v>1164.736904060082</v>
       </c>
       <c r="AB6" t="n">
-        <v>1494.014164150053</v>
+        <v>1593.644416700671</v>
       </c>
       <c r="AC6" t="n">
-        <v>1351.42754918562</v>
+        <v>1441.549230264745</v>
       </c>
       <c r="AD6" t="n">
-        <v>1091920.765974037</v>
+        <v>1164736.904060082</v>
       </c>
       <c r="AE6" t="n">
-        <v>1494014.164150053</v>
+        <v>1593644.416700671</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.404972073664745e-06</v>
+        <v>2.375174999907175e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.42057291666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1351427.54918562</v>
+        <v>1441549.230264745</v>
       </c>
     </row>
     <row r="7">
@@ -3982,28 +3982,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1028.642762828549</v>
+        <v>1101.458900914594</v>
       </c>
       <c r="AB7" t="n">
-        <v>1407.434408617921</v>
+        <v>1507.064661168539</v>
       </c>
       <c r="AC7" t="n">
-        <v>1273.110844006025</v>
+        <v>1363.23252508515</v>
       </c>
       <c r="AD7" t="n">
-        <v>1028642.762828549</v>
+        <v>1101458.900914594</v>
       </c>
       <c r="AE7" t="n">
-        <v>1407434.408617921</v>
+        <v>1507064.661168538</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.443625611576575e-06</v>
+        <v>2.440520723588832e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.03645833333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>1273110.844006025</v>
+        <v>1363232.52508515</v>
       </c>
     </row>
     <row r="8">
@@ -4088,28 +4088,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>969.3523862608541</v>
+        <v>1042.25377569292</v>
       </c>
       <c r="AB8" t="n">
-        <v>1326.310699691194</v>
+        <v>1426.057596894462</v>
       </c>
       <c r="AC8" t="n">
-        <v>1199.729468001424</v>
+        <v>1289.956661331262</v>
       </c>
       <c r="AD8" t="n">
-        <v>969352.3862608541</v>
+        <v>1042253.77569292</v>
       </c>
       <c r="AE8" t="n">
-        <v>1326310.699691194</v>
+        <v>1426057.596894462</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.469488002884731e-06</v>
+        <v>2.484242379288877e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.7890625</v>
       </c>
       <c r="AH8" t="n">
-        <v>1199729.468001424</v>
+        <v>1289956.661331262</v>
       </c>
     </row>
     <row r="9">
@@ -4194,28 +4194,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>931.4300763489243</v>
+        <v>1004.33146578099</v>
       </c>
       <c r="AB9" t="n">
-        <v>1274.423722255454</v>
+        <v>1374.170619458721</v>
       </c>
       <c r="AC9" t="n">
-        <v>1152.794510868321</v>
+        <v>1243.021704198158</v>
       </c>
       <c r="AD9" t="n">
-        <v>931430.0763489243</v>
+        <v>1004331.46578099</v>
       </c>
       <c r="AE9" t="n">
-        <v>1274423.722255454</v>
+        <v>1374170.619458721</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.488814771840646e-06</v>
+        <v>2.516915241129706e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>13.60894097222222</v>
       </c>
       <c r="AH9" t="n">
-        <v>1152794.510868321</v>
+        <v>1243021.704198158</v>
       </c>
     </row>
     <row r="10">
@@ -4300,28 +4300,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>916.3539844452201</v>
+        <v>989.2553738772857</v>
       </c>
       <c r="AB10" t="n">
-        <v>1253.795948202572</v>
+        <v>1353.542845405839</v>
       </c>
       <c r="AC10" t="n">
-        <v>1134.135422619783</v>
+        <v>1224.36261594962</v>
       </c>
       <c r="AD10" t="n">
-        <v>916353.9844452201</v>
+        <v>989255.3738772857</v>
       </c>
       <c r="AE10" t="n">
-        <v>1253795.948202572</v>
+        <v>1353542.845405839</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.495350394192887e-06</v>
+        <v>2.527964034988923e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>14</v>
+        <v>13.55034722222222</v>
       </c>
       <c r="AH10" t="n">
-        <v>1134135.422619783</v>
+        <v>1224362.61594962</v>
       </c>
     </row>
     <row r="11">
@@ -4406,28 +4406,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>916.6454701432478</v>
+        <v>989.5468595753136</v>
       </c>
       <c r="AB11" t="n">
-        <v>1254.194771794055</v>
+        <v>1353.941668997323</v>
       </c>
       <c r="AC11" t="n">
-        <v>1134.496183047448</v>
+        <v>1224.723376377285</v>
       </c>
       <c r="AD11" t="n">
-        <v>916645.4701432479</v>
+        <v>989546.8595753136</v>
       </c>
       <c r="AE11" t="n">
-        <v>1254194.771794055</v>
+        <v>1353941.668997323</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.496750884696939e-06</v>
+        <v>2.530331633673041e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>14</v>
+        <v>13.53732638888889</v>
       </c>
       <c r="AH11" t="n">
-        <v>1134496.183047448</v>
+        <v>1224723.376377285</v>
       </c>
     </row>
   </sheetData>
@@ -4703,28 +4703,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2399.427205729847</v>
+        <v>2520.428768510149</v>
       </c>
       <c r="AB2" t="n">
-        <v>3283.002158137193</v>
+        <v>3448.561834545408</v>
       </c>
       <c r="AC2" t="n">
-        <v>2969.677039886923</v>
+        <v>3119.435933143197</v>
       </c>
       <c r="AD2" t="n">
-        <v>2399427.205729847</v>
+        <v>2520428.768510148</v>
       </c>
       <c r="AE2" t="n">
-        <v>3283002.158137193</v>
+        <v>3448561.834545408</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.661819520782965e-07</v>
+        <v>1.500046115453346e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.19921875</v>
       </c>
       <c r="AH2" t="n">
-        <v>2969677.039886923</v>
+        <v>3119435.933143197</v>
       </c>
     </row>
     <row r="3">
@@ -4809,28 +4809,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1304.075175018252</v>
+        <v>1394.804944758422</v>
       </c>
       <c r="AB3" t="n">
-        <v>1784.293186196309</v>
+        <v>1908.433659869752</v>
       </c>
       <c r="AC3" t="n">
-        <v>1614.002748776948</v>
+        <v>1726.295429875247</v>
       </c>
       <c r="AD3" t="n">
-        <v>1304075.175018252</v>
+        <v>1394804.944758422</v>
       </c>
       <c r="AE3" t="n">
-        <v>1784293.186196309</v>
+        <v>1908433.659869752</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.244701919762824e-06</v>
+        <v>2.155563591642203e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.84027777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>1614002.748776948</v>
+        <v>1726295.429875247</v>
       </c>
     </row>
     <row r="4">
@@ -4915,28 +4915,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1084.026107318227</v>
+        <v>1154.660171733799</v>
       </c>
       <c r="AB4" t="n">
-        <v>1483.212343889415</v>
+        <v>1579.856986977795</v>
       </c>
       <c r="AC4" t="n">
-        <v>1341.656639490208</v>
+        <v>1429.077653483841</v>
       </c>
       <c r="AD4" t="n">
-        <v>1084026.107318227</v>
+        <v>1154660.171733799</v>
       </c>
       <c r="AE4" t="n">
-        <v>1483212.343889415</v>
+        <v>1579856.986977795</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.385813854640878e-06</v>
+        <v>2.399939971512558e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.12586805555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>1341656.639490208</v>
+        <v>1429077.653483841</v>
       </c>
     </row>
     <row r="5">
@@ -5021,28 +5021,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>969.6787449469427</v>
+        <v>1040.227468507943</v>
       </c>
       <c r="AB5" t="n">
-        <v>1326.75723804343</v>
+        <v>1423.285114009612</v>
       </c>
       <c r="AC5" t="n">
-        <v>1200.133389360043</v>
+        <v>1287.448780321738</v>
       </c>
       <c r="AD5" t="n">
-        <v>969678.7449469428</v>
+        <v>1040227.468507943</v>
       </c>
       <c r="AE5" t="n">
-        <v>1326757.23804343</v>
+        <v>1423285.114009612</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.461633751204378e-06</v>
+        <v>2.531244186569524e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.34027777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>1200133.389360043</v>
+        <v>1287448.780321738</v>
       </c>
     </row>
     <row r="6">
@@ -5127,28 +5127,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>888.3425159241719</v>
+        <v>968.8963769659098</v>
       </c>
       <c r="AB6" t="n">
-        <v>1215.4694211933</v>
+        <v>1325.686767656141</v>
       </c>
       <c r="AC6" t="n">
-        <v>1099.466725556657</v>
+        <v>1199.165083164102</v>
       </c>
       <c r="AD6" t="n">
-        <v>888342.5159241719</v>
+        <v>968896.3769659097</v>
       </c>
       <c r="AE6" t="n">
-        <v>1215469.4211933</v>
+        <v>1325686.767656141</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.508091547697426e-06</v>
+        <v>2.611699380763665e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.89756944444445</v>
       </c>
       <c r="AH6" t="n">
-        <v>1099466.725556657</v>
+        <v>1199165.083164102</v>
       </c>
     </row>
     <row r="7">
@@ -5233,28 +5233,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>840.6610945515965</v>
+        <v>911.2950694586174</v>
       </c>
       <c r="AB7" t="n">
-        <v>1150.229596915493</v>
+        <v>1246.874117534325</v>
       </c>
       <c r="AC7" t="n">
-        <v>1040.453298543256</v>
+        <v>1127.874201755663</v>
       </c>
       <c r="AD7" t="n">
-        <v>840661.0945515966</v>
+        <v>911295.0694586174</v>
       </c>
       <c r="AE7" t="n">
-        <v>1150229.596915493</v>
+        <v>1246874.117534325</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.535039001380505e-06</v>
+        <v>2.658366738726587e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.65451388888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>1040453.298543256</v>
+        <v>1127874.201755663</v>
       </c>
     </row>
     <row r="8">
@@ -5339,28 +5339,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>837.2277130060828</v>
+        <v>907.8616879131038</v>
       </c>
       <c r="AB8" t="n">
-        <v>1145.531892814817</v>
+        <v>1242.176413433649</v>
       </c>
       <c r="AC8" t="n">
-        <v>1036.20393672868</v>
+        <v>1123.624839941087</v>
       </c>
       <c r="AD8" t="n">
-        <v>837227.7130060828</v>
+        <v>907861.6879131037</v>
       </c>
       <c r="AE8" t="n">
-        <v>1145531.892814817</v>
+        <v>1242176.413433649</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.539192193166785e-06</v>
+        <v>2.665559198914421e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.61762152777778</v>
       </c>
       <c r="AH8" t="n">
-        <v>1036203.93672868</v>
+        <v>1123624.839941087</v>
       </c>
     </row>
     <row r="9">
@@ -5445,28 +5445,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>841.0251714270769</v>
+        <v>911.659146334098</v>
       </c>
       <c r="AB9" t="n">
-        <v>1150.727742958463</v>
+        <v>1247.372263577295</v>
       </c>
       <c r="AC9" t="n">
-        <v>1040.903902227037</v>
+        <v>1128.324805439445</v>
       </c>
       <c r="AD9" t="n">
-        <v>841025.1714270769</v>
+        <v>911659.146334098</v>
       </c>
       <c r="AE9" t="n">
-        <v>1150727.742958463</v>
+        <v>1247372.263577295</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.538999021455796e-06</v>
+        <v>2.665224665882429e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>13.61979166666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1040903.902227037</v>
+        <v>1128324.805439445</v>
       </c>
     </row>
   </sheetData>
@@ -5742,28 +5742,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>923.8203350802218</v>
+        <v>1005.773284740088</v>
       </c>
       <c r="AB2" t="n">
-        <v>1264.011738533524</v>
+        <v>1376.143379767122</v>
       </c>
       <c r="AC2" t="n">
-        <v>1143.376232259501</v>
+        <v>1244.806187031512</v>
       </c>
       <c r="AD2" t="n">
-        <v>923820.3350802218</v>
+        <v>1005773.284740088</v>
       </c>
       <c r="AE2" t="n">
-        <v>1264011.738533524</v>
+        <v>1376143.379767122</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.387612708267588e-06</v>
+        <v>2.625661844031806e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.85546875</v>
       </c>
       <c r="AH2" t="n">
-        <v>1143376.232259501</v>
+        <v>1244806.187031512</v>
       </c>
     </row>
     <row r="3">
@@ -5848,28 +5848,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>667.6387720708805</v>
+        <v>731.3610800138674</v>
       </c>
       <c r="AB3" t="n">
-        <v>913.4928220912341</v>
+        <v>1000.680495048649</v>
       </c>
       <c r="AC3" t="n">
-        <v>826.3103492460741</v>
+        <v>905.1769530651005</v>
       </c>
       <c r="AD3" t="n">
-        <v>667638.7720708805</v>
+        <v>731361.0800138675</v>
       </c>
       <c r="AE3" t="n">
-        <v>913492.822091234</v>
+        <v>1000680.495048649</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.627305963660762e-06</v>
+        <v>3.079213062760096e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.37282986111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>826310.3492460741</v>
+        <v>905176.9530651005</v>
       </c>
     </row>
     <row r="4">
@@ -5954,28 +5954,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>663.5579429183142</v>
+        <v>727.2802508613011</v>
       </c>
       <c r="AB4" t="n">
-        <v>907.9092516112167</v>
+        <v>995.0969245686313</v>
       </c>
       <c r="AC4" t="n">
-        <v>821.2596668960792</v>
+        <v>900.1262707151056</v>
       </c>
       <c r="AD4" t="n">
-        <v>663557.9429183142</v>
+        <v>727280.2508613011</v>
       </c>
       <c r="AE4" t="n">
-        <v>907909.2516112167</v>
+        <v>995096.9245686312</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.634634714275301e-06</v>
+        <v>3.093080635994594e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.30772569444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>821259.6668960792</v>
+        <v>900126.2707151057</v>
       </c>
     </row>
   </sheetData>
@@ -6251,28 +6251,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1335.311349501574</v>
+        <v>1420.781116020877</v>
       </c>
       <c r="AB2" t="n">
-        <v>1827.03189816715</v>
+        <v>1943.97540337884</v>
       </c>
       <c r="AC2" t="n">
-        <v>1652.662538061451</v>
+        <v>1758.445119266977</v>
       </c>
       <c r="AD2" t="n">
-        <v>1335311.349501574</v>
+        <v>1420781.116020877</v>
       </c>
       <c r="AE2" t="n">
-        <v>1827031.89816715</v>
+        <v>1943975.40337884</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.176435291025888e-06</v>
+        <v>2.143209608173567e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.01909722222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>1652662.538061451</v>
+        <v>1758445.119266977</v>
       </c>
     </row>
     <row r="3">
@@ -6357,28 +6357,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>857.4135094647602</v>
+        <v>933.3012148419683</v>
       </c>
       <c r="AB3" t="n">
-        <v>1173.150990064069</v>
+        <v>1276.983896490441</v>
       </c>
       <c r="AC3" t="n">
-        <v>1061.187106100109</v>
+        <v>1155.110345667548</v>
       </c>
       <c r="AD3" t="n">
-        <v>857413.5094647602</v>
+        <v>933301.2148419683</v>
       </c>
       <c r="AE3" t="n">
-        <v>1173150.990064069</v>
+        <v>1276983.896490441</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.492557166773948e-06</v>
+        <v>2.719115012087692e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.99131944444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>1061187.106100109</v>
+        <v>1155110.345667548</v>
       </c>
     </row>
     <row r="4">
@@ -6463,28 +6463,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>737.3553340151564</v>
+        <v>803.746498121943</v>
       </c>
       <c r="AB4" t="n">
-        <v>1008.882097821035</v>
+        <v>1099.721417523384</v>
       </c>
       <c r="AC4" t="n">
-        <v>912.595806379912</v>
+        <v>994.7655489036551</v>
       </c>
       <c r="AD4" t="n">
-        <v>737355.3340151564</v>
+        <v>803746.498121943</v>
       </c>
       <c r="AE4" t="n">
-        <v>1008882.097821035</v>
+        <v>1099721.417523384</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.597312491548909e-06</v>
+        <v>2.90995646361305e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.00824652777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>912595.806379912</v>
+        <v>994765.5489036551</v>
       </c>
     </row>
     <row r="5">
@@ -6569,28 +6569,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>718.9023341728928</v>
+        <v>794.7046986955293</v>
       </c>
       <c r="AB5" t="n">
-        <v>983.6338893479522</v>
+        <v>1087.350028652127</v>
       </c>
       <c r="AC5" t="n">
-        <v>889.7572514874172</v>
+        <v>983.5748680229173</v>
       </c>
       <c r="AD5" t="n">
-        <v>718902.3341728927</v>
+        <v>794704.6986955293</v>
       </c>
       <c r="AE5" t="n">
-        <v>983633.8893479522</v>
+        <v>1087350.028652127</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.606591998664801e-06</v>
+        <v>2.92686171030329e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.92795138888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>889757.2514874171</v>
+        <v>983574.8680229173</v>
       </c>
     </row>
     <row r="6">
@@ -6675,28 +6675,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>721.7449253741033</v>
+        <v>797.5472898967399</v>
       </c>
       <c r="AB6" t="n">
-        <v>987.5232480357218</v>
+        <v>1091.239387339896</v>
       </c>
       <c r="AC6" t="n">
-        <v>893.2754152407754</v>
+        <v>987.0930317762752</v>
       </c>
       <c r="AD6" t="n">
-        <v>721744.9253741034</v>
+        <v>797547.2898967399</v>
       </c>
       <c r="AE6" t="n">
-        <v>987523.2480357218</v>
+        <v>1091239.387339897</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.60844790008798e-06</v>
+        <v>2.930242759641337e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.91059027777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>893275.4152407753</v>
+        <v>987093.0317762753</v>
       </c>
     </row>
   </sheetData>
@@ -6972,28 +6972,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>676.9054239121504</v>
+        <v>747.1560314480967</v>
       </c>
       <c r="AB2" t="n">
-        <v>926.1718639562856</v>
+        <v>1022.291844425039</v>
       </c>
       <c r="AC2" t="n">
-        <v>837.7793211506721</v>
+        <v>924.7257455887274</v>
       </c>
       <c r="AD2" t="n">
-        <v>676905.4239121503</v>
+        <v>747156.0314480966</v>
       </c>
       <c r="AE2" t="n">
-        <v>926171.8639562856</v>
+        <v>1022291.844425039</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.568085913698298e-06</v>
+        <v>3.072943152833925e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.49045138888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>837779.3211506722</v>
+        <v>924725.7455887274</v>
       </c>
     </row>
     <row r="3">
@@ -7078,28 +7078,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>617.4174336823462</v>
+        <v>687.7532925643131</v>
       </c>
       <c r="AB3" t="n">
-        <v>844.7777712989617</v>
+        <v>941.0143964203639</v>
       </c>
       <c r="AC3" t="n">
-        <v>764.1533664592367</v>
+        <v>851.2053031480041</v>
       </c>
       <c r="AD3" t="n">
-        <v>617417.4336823463</v>
+        <v>687753.2925643132</v>
       </c>
       <c r="AE3" t="n">
-        <v>844777.7712989617</v>
+        <v>941014.3964203639</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.637037367966137e-06</v>
+        <v>3.208065787008077e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.83723958333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>764153.3664592367</v>
+        <v>851205.3031480041</v>
       </c>
     </row>
   </sheetData>
@@ -7375,28 +7375,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2635.203805158864</v>
+        <v>2767.317397328482</v>
       </c>
       <c r="AB2" t="n">
-        <v>3605.602103205442</v>
+        <v>3786.365748452258</v>
       </c>
       <c r="AC2" t="n">
-        <v>3261.488498969713</v>
+        <v>3425.000315617535</v>
       </c>
       <c r="AD2" t="n">
-        <v>2635203.805158864</v>
+        <v>2767317.397328482</v>
       </c>
       <c r="AE2" t="n">
-        <v>3605602.103205442</v>
+        <v>3786365.748452258</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.226024831007828e-07</v>
+        <v>1.41527211324442e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.25390625</v>
       </c>
       <c r="AH2" t="n">
-        <v>3261488.498969713</v>
+        <v>3425000.315617535</v>
       </c>
     </row>
     <row r="3">
@@ -7481,28 +7481,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1387.616668883262</v>
+        <v>1469.022410311942</v>
       </c>
       <c r="AB3" t="n">
-        <v>1898.598343693008</v>
+        <v>2009.981270483574</v>
       </c>
       <c r="AC3" t="n">
-        <v>1717.398782470458</v>
+        <v>1818.151479055051</v>
       </c>
       <c r="AD3" t="n">
-        <v>1387616.668883262</v>
+        <v>1469022.410311942</v>
       </c>
       <c r="AE3" t="n">
-        <v>1898598.343693008</v>
+        <v>2009981.270483574</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.211027067278462e-06</v>
+        <v>2.083549310771282e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.15277777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>1717398.782470458</v>
+        <v>1818151.479055051</v>
       </c>
     </row>
     <row r="4">
@@ -7587,28 +7587,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1139.289593692848</v>
+        <v>1220.524653412384</v>
       </c>
       <c r="AB4" t="n">
-        <v>1558.826284000121</v>
+        <v>1669.975676546291</v>
       </c>
       <c r="AC4" t="n">
-        <v>1410.054091281579</v>
+        <v>1510.595541802295</v>
       </c>
       <c r="AD4" t="n">
-        <v>1139289.593692848</v>
+        <v>1220524.653412384</v>
       </c>
       <c r="AE4" t="n">
-        <v>1558826.284000121</v>
+        <v>1669975.676546291</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.356040188281218e-06</v>
+        <v>2.333041660266895e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.31684027777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>1410054.091281579</v>
+        <v>1510595.541802295</v>
       </c>
     </row>
     <row r="5">
@@ -7693,28 +7693,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1020.147144001376</v>
+        <v>1091.291838085468</v>
       </c>
       <c r="AB5" t="n">
-        <v>1395.810328138333</v>
+        <v>1493.153637266574</v>
       </c>
       <c r="AC5" t="n">
-        <v>1262.596149452909</v>
+        <v>1350.649149780143</v>
       </c>
       <c r="AD5" t="n">
-        <v>1020147.144001376</v>
+        <v>1091291.838085468</v>
       </c>
       <c r="AE5" t="n">
-        <v>1395810.328138333</v>
+        <v>1493153.637266574</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.432901928324263e-06</v>
+        <v>2.46528083957051e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.49652777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>1262596.149452909</v>
+        <v>1350649.149780143</v>
       </c>
     </row>
     <row r="6">
@@ -7799,28 +7799,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>947.4961208482521</v>
+        <v>1018.640814932344</v>
       </c>
       <c r="AB6" t="n">
-        <v>1296.405993123294</v>
+        <v>1393.749302251535</v>
       </c>
       <c r="AC6" t="n">
-        <v>1172.678824656845</v>
+        <v>1260.731824984079</v>
       </c>
       <c r="AD6" t="n">
-        <v>947496.1208482521</v>
+        <v>1018640.814932344</v>
       </c>
       <c r="AE6" t="n">
-        <v>1296405.993123294</v>
+        <v>1393749.302251535</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.481143917093497e-06</v>
+        <v>2.548280274650238e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.0234375</v>
       </c>
       <c r="AH6" t="n">
-        <v>1172678.824656845</v>
+        <v>1260731.824984079</v>
       </c>
     </row>
     <row r="7">
@@ -7905,28 +7905,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>881.5657453706143</v>
+        <v>952.7956908007269</v>
       </c>
       <c r="AB7" t="n">
-        <v>1206.197144751906</v>
+        <v>1303.657098532796</v>
       </c>
       <c r="AC7" t="n">
-        <v>1091.079382165108</v>
+        <v>1179.237894743054</v>
       </c>
       <c r="AD7" t="n">
-        <v>881565.7453706143</v>
+        <v>952795.6908007269</v>
       </c>
       <c r="AE7" t="n">
-        <v>1206197.144751906</v>
+        <v>1303657.098532796</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.513496679403023e-06</v>
+        <v>2.603942594207675e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.72395833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1091079.382165108</v>
+        <v>1179237.894743054</v>
       </c>
     </row>
     <row r="8">
@@ -8011,28 +8011,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>853.2368860819895</v>
+        <v>924.4668315121022</v>
       </c>
       <c r="AB8" t="n">
-        <v>1167.436349692143</v>
+        <v>1264.896303473033</v>
       </c>
       <c r="AC8" t="n">
-        <v>1056.017862984732</v>
+        <v>1144.176375562677</v>
       </c>
       <c r="AD8" t="n">
-        <v>853236.8860819895</v>
+        <v>924466.8315121022</v>
       </c>
       <c r="AE8" t="n">
-        <v>1167436.349692143</v>
+        <v>1264896.303473033</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.526801513607236e-06</v>
+        <v>2.626833311422124e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.60460069444444</v>
       </c>
       <c r="AH8" t="n">
-        <v>1056017.862984732</v>
+        <v>1144176.375562677</v>
       </c>
     </row>
     <row r="9">
@@ -8117,28 +8117,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>854.7425741003634</v>
+        <v>925.9725195304761</v>
       </c>
       <c r="AB9" t="n">
-        <v>1169.496498465149</v>
+        <v>1266.956452246039</v>
       </c>
       <c r="AC9" t="n">
-        <v>1057.881394050279</v>
+        <v>1146.039906628225</v>
       </c>
       <c r="AD9" t="n">
-        <v>854742.5741003634</v>
+        <v>925972.5195304761</v>
       </c>
       <c r="AE9" t="n">
-        <v>1169496.498465149</v>
+        <v>1266956.452246039</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.529194469399361e-06</v>
+        <v>2.630950346892349e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>13.58289930555556</v>
       </c>
       <c r="AH9" t="n">
-        <v>1057881.394050279</v>
+        <v>1146039.906628225</v>
       </c>
     </row>
   </sheetData>
@@ -8414,28 +8414,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>602.1730051113245</v>
+        <v>670.9422167741025</v>
       </c>
       <c r="AB2" t="n">
-        <v>823.9196715913666</v>
+        <v>918.0127408718772</v>
       </c>
       <c r="AC2" t="n">
-        <v>745.2859345132075</v>
+        <v>830.3988933220384</v>
       </c>
       <c r="AD2" t="n">
-        <v>602173.0051113245</v>
+        <v>670942.2167741024</v>
       </c>
       <c r="AE2" t="n">
-        <v>823919.6715913666</v>
+        <v>918012.7408718772</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.616434839505929e-06</v>
+        <v>3.240402874123226e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.37977430555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>745285.9345132075</v>
+        <v>830398.8933220383</v>
       </c>
     </row>
     <row r="3">
@@ -8520,28 +8520,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>602.870722178234</v>
+        <v>671.6399338410121</v>
       </c>
       <c r="AB3" t="n">
-        <v>824.8743188634165</v>
+        <v>918.9673881439273</v>
       </c>
       <c r="AC3" t="n">
-        <v>746.1494715894692</v>
+        <v>831.2624303983</v>
       </c>
       <c r="AD3" t="n">
-        <v>602870.722178234</v>
+        <v>671639.9338410121</v>
       </c>
       <c r="AE3" t="n">
-        <v>824874.3188634166</v>
+        <v>918967.3881439273</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.622620615236446e-06</v>
+        <v>3.252803253628765e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.32118055555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>746149.4715894691</v>
+        <v>831262.4303983001</v>
       </c>
     </row>
   </sheetData>
@@ -8817,28 +8817,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1807.295217523489</v>
+        <v>1915.081394510361</v>
       </c>
       <c r="AB2" t="n">
-        <v>2472.821048853415</v>
+        <v>2620.298851397377</v>
       </c>
       <c r="AC2" t="n">
-        <v>2236.818478576984</v>
+        <v>2370.221206632547</v>
       </c>
       <c r="AD2" t="n">
-        <v>1807295.217523489</v>
+        <v>1915081.394510361</v>
       </c>
       <c r="AE2" t="n">
-        <v>2472821.048853415</v>
+        <v>2620298.851397377</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.00777180114316e-06</v>
+        <v>1.784838744222857e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.43012152777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>2236818.478576984</v>
+        <v>2370221.206632547</v>
       </c>
     </row>
     <row r="3">
@@ -8923,28 +8923,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1077.280389157079</v>
+        <v>1165.437973146771</v>
       </c>
       <c r="AB3" t="n">
-        <v>1473.982554701251</v>
+        <v>1594.603650354064</v>
       </c>
       <c r="AC3" t="n">
-        <v>1333.307728428072</v>
+        <v>1442.416916004551</v>
       </c>
       <c r="AD3" t="n">
-        <v>1077280.389157079</v>
+        <v>1165437.973146771</v>
       </c>
       <c r="AE3" t="n">
-        <v>1473982.554701251</v>
+        <v>1594603.650354064</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.358854936764081e-06</v>
+        <v>2.406633065306913e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.89192708333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1333307.728428072</v>
+        <v>1442416.916004551</v>
       </c>
     </row>
     <row r="4">
@@ -9029,28 +9029,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>903.0720505914475</v>
+        <v>971.8571536562239</v>
       </c>
       <c r="AB4" t="n">
-        <v>1235.623020346274</v>
+        <v>1329.737832944077</v>
       </c>
       <c r="AC4" t="n">
-        <v>1117.696893492226</v>
+        <v>1202.829520466664</v>
       </c>
       <c r="AD4" t="n">
-        <v>903072.0505914475</v>
+        <v>971857.1536562239</v>
       </c>
       <c r="AE4" t="n">
-        <v>1235623.020346274</v>
+        <v>1329737.832944077</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.48762522516926e-06</v>
+        <v>2.634694814593412e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.51605902777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>1117696.893492226</v>
+        <v>1202829.520466664</v>
       </c>
     </row>
     <row r="5">
@@ -9135,28 +9135,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>803.4100150316879</v>
+        <v>881.7533472770643</v>
       </c>
       <c r="AB5" t="n">
-        <v>1099.261026514711</v>
+        <v>1206.453829956723</v>
       </c>
       <c r="AC5" t="n">
-        <v>994.3490969666869</v>
+        <v>1091.311569694237</v>
       </c>
       <c r="AD5" t="n">
-        <v>803410.0150316879</v>
+        <v>881753.3472770643</v>
       </c>
       <c r="AE5" t="n">
-        <v>1099261.026514711</v>
+        <v>1206453.829956722</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.554000636580585e-06</v>
+        <v>2.752250600353918e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.89756944444445</v>
       </c>
       <c r="AH5" t="n">
-        <v>994349.0969666869</v>
+        <v>1091311.569694237</v>
       </c>
     </row>
     <row r="6">
@@ -9241,28 +9241,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>775.9938651563274</v>
+        <v>844.693627366532</v>
       </c>
       <c r="AB6" t="n">
-        <v>1061.749040740073</v>
+        <v>1155.747086215679</v>
       </c>
       <c r="AC6" t="n">
-        <v>960.417202465978</v>
+        <v>1045.444206408478</v>
       </c>
       <c r="AD6" t="n">
-        <v>775993.8651563274</v>
+        <v>844693.627366532</v>
       </c>
       <c r="AE6" t="n">
-        <v>1061749.040740073</v>
+        <v>1155747.08621568</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.573505255226191e-06</v>
+        <v>2.786794729303032e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.72395833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>960417.202465978</v>
+        <v>1045444.206408478</v>
       </c>
     </row>
     <row r="7">
@@ -9347,28 +9347,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>779.2280541203462</v>
+        <v>847.9278163305509</v>
       </c>
       <c r="AB7" t="n">
-        <v>1066.174200762991</v>
+        <v>1160.172246238597</v>
       </c>
       <c r="AC7" t="n">
-        <v>964.4200314270594</v>
+        <v>1049.447035369559</v>
       </c>
       <c r="AD7" t="n">
-        <v>779228.0541203462</v>
+        <v>847927.8163305508</v>
       </c>
       <c r="AE7" t="n">
-        <v>1066174.200762991</v>
+        <v>1160172.246238597</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.573007688424008e-06</v>
+        <v>2.785913501523719e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.72829861111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>964420.0314270593</v>
+        <v>1049447.035369559</v>
       </c>
     </row>
   </sheetData>
@@ -9644,28 +9644,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2188.279854165679</v>
+        <v>2308.135562290998</v>
       </c>
       <c r="AB2" t="n">
-        <v>2994.10103656319</v>
+        <v>3158.092904081089</v>
       </c>
       <c r="AC2" t="n">
-        <v>2708.348235880796</v>
+        <v>2856.6889497267</v>
       </c>
       <c r="AD2" t="n">
-        <v>2188279.854165679</v>
+        <v>2308135.562290998</v>
       </c>
       <c r="AE2" t="n">
-        <v>2994101.03656319</v>
+        <v>3158092.904081089</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.106805161448834e-07</v>
+        <v>1.588147300258583e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.23350694444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>2708348.235880796</v>
+        <v>2856688.9497267</v>
       </c>
     </row>
     <row r="3">
@@ -9750,28 +9750,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1230.805806562178</v>
+        <v>1320.740190952037</v>
       </c>
       <c r="AB3" t="n">
-        <v>1684.042803858303</v>
+        <v>1807.094996205527</v>
       </c>
       <c r="AC3" t="n">
-        <v>1523.320122226986</v>
+        <v>1634.628386041428</v>
       </c>
       <c r="AD3" t="n">
-        <v>1230805.806562178</v>
+        <v>1320740.190952037</v>
       </c>
       <c r="AE3" t="n">
-        <v>1684042.803858303</v>
+        <v>1807094.996205527</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.280705415370775e-06</v>
+        <v>2.233438414228745e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.52126736111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>1523320.122226986</v>
+        <v>1634628.386041427</v>
       </c>
     </row>
     <row r="4">
@@ -9856,28 +9856,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1017.258404644861</v>
+        <v>1097.190597340894</v>
       </c>
       <c r="AB4" t="n">
-        <v>1391.857827508562</v>
+        <v>1501.224579914739</v>
       </c>
       <c r="AC4" t="n">
-        <v>1259.020869935874</v>
+        <v>1357.949812989607</v>
       </c>
       <c r="AD4" t="n">
-        <v>1017258.404644861</v>
+        <v>1097190.597340894</v>
       </c>
       <c r="AE4" t="n">
-        <v>1391857.827508562</v>
+        <v>1501224.579914739</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.418185022197787e-06</v>
+        <v>2.473190843925169e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.91970486111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>1259020.869935874</v>
+        <v>1357949.812989607</v>
       </c>
     </row>
     <row r="5">
@@ -9962,28 +9962,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>917.3638110406013</v>
+        <v>987.29390155136</v>
       </c>
       <c r="AB5" t="n">
-        <v>1255.177637500778</v>
+        <v>1350.859072435456</v>
       </c>
       <c r="AC5" t="n">
-        <v>1135.385245430581</v>
+        <v>1221.934978504831</v>
       </c>
       <c r="AD5" t="n">
-        <v>917363.8110406012</v>
+        <v>987293.90155136</v>
       </c>
       <c r="AE5" t="n">
-        <v>1255177.637500778</v>
+        <v>1350859.072435456</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.490922459568673e-06</v>
+        <v>2.600038583324838e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.19270833333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>1135385.245430581</v>
+        <v>1221934.978504831</v>
       </c>
     </row>
     <row r="6">
@@ -10068,28 +10068,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>839.2385429216729</v>
+        <v>909.2538847784524</v>
       </c>
       <c r="AB6" t="n">
-        <v>1148.283199016883</v>
+        <v>1244.08127860421</v>
       </c>
       <c r="AC6" t="n">
-        <v>1038.692662128303</v>
+        <v>1125.347907453264</v>
       </c>
       <c r="AD6" t="n">
-        <v>839238.5429216729</v>
+        <v>909253.8847784525</v>
       </c>
       <c r="AE6" t="n">
-        <v>1148283.199016883</v>
+        <v>1244081.27860421</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.535676459237892e-06</v>
+        <v>2.678085650864312e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.77821180555556</v>
       </c>
       <c r="AH6" t="n">
-        <v>1038692.662128303</v>
+        <v>1125347.907453265</v>
       </c>
     </row>
     <row r="7">
@@ -10174,28 +10174,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>816.190153768477</v>
+        <v>886.2054956252566</v>
       </c>
       <c r="AB7" t="n">
-        <v>1116.747376154314</v>
+        <v>1212.545455741642</v>
       </c>
       <c r="AC7" t="n">
-        <v>1010.166573938932</v>
+        <v>1096.821819263895</v>
       </c>
       <c r="AD7" t="n">
-        <v>816190.153768477</v>
+        <v>886205.4956252566</v>
       </c>
       <c r="AE7" t="n">
-        <v>1116747.376154314</v>
+        <v>1212545.455741642</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.549131910118833e-06</v>
+        <v>2.701550782281409e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.65885416666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1010166.573938932</v>
+        <v>1096821.819263895</v>
       </c>
     </row>
     <row r="8">
@@ -10280,28 +10280,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>818.4553463866553</v>
+        <v>888.4706882434347</v>
       </c>
       <c r="AB8" t="n">
-        <v>1119.846712627751</v>
+        <v>1215.644792215079</v>
       </c>
       <c r="AC8" t="n">
-        <v>1012.970114089291</v>
+        <v>1099.625359414253</v>
       </c>
       <c r="AD8" t="n">
-        <v>818455.3463866552</v>
+        <v>888470.6882434346</v>
       </c>
       <c r="AE8" t="n">
-        <v>1119846.712627751</v>
+        <v>1215644.792215079</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.550399452593125e-06</v>
+        <v>2.703761265675773e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.64800347222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>1012970.11408929</v>
+        <v>1099625.359414253</v>
       </c>
     </row>
   </sheetData>
@@ -10577,28 +10577,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3158.809171918268</v>
+        <v>3303.362534251567</v>
       </c>
       <c r="AB2" t="n">
-        <v>4322.022065844177</v>
+        <v>4519.806353432869</v>
       </c>
       <c r="AC2" t="n">
-        <v>3909.534345875912</v>
+        <v>4088.442378649125</v>
       </c>
       <c r="AD2" t="n">
-        <v>3158809.171918268</v>
+        <v>3303362.534251567</v>
       </c>
       <c r="AE2" t="n">
-        <v>4322022.065844176</v>
+        <v>4519806.35343287</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.431115500789199e-07</v>
+        <v>1.263240384391607e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.48263888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>3909534.345875912</v>
+        <v>4088442.378649125</v>
       </c>
     </row>
     <row r="3">
@@ -10683,28 +10683,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1548.063843598552</v>
+        <v>1651.267415127902</v>
       </c>
       <c r="AB3" t="n">
-        <v>2118.129246568245</v>
+        <v>2259.336926154942</v>
       </c>
       <c r="AC3" t="n">
-        <v>1915.97796408884</v>
+        <v>2043.708980922006</v>
       </c>
       <c r="AD3" t="n">
-        <v>1548063.843598552</v>
+        <v>1651267.415127902</v>
       </c>
       <c r="AE3" t="n">
-        <v>2118129.246568245</v>
+        <v>2259336.926154942</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.143842170676189e-06</v>
+        <v>1.944455880432572e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.85373263888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>1915977.96408884</v>
+        <v>2043708.980922006</v>
       </c>
     </row>
     <row r="4">
@@ -10789,28 +10789,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1254.66794793865</v>
+        <v>1337.367350529445</v>
       </c>
       <c r="AB4" t="n">
-        <v>1716.692038412973</v>
+        <v>1829.845009477847</v>
       </c>
       <c r="AC4" t="n">
-        <v>1552.853359659247</v>
+        <v>1655.207169976881</v>
       </c>
       <c r="AD4" t="n">
-        <v>1254667.94793865</v>
+        <v>1337367.350529445</v>
       </c>
       <c r="AE4" t="n">
-        <v>1716692.038412973</v>
+        <v>1829845.009477847</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.297151278462228e-06</v>
+        <v>2.205071202896342e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.74435763888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>1552853.359659247</v>
+        <v>1655207.169976881</v>
       </c>
     </row>
     <row r="5">
@@ -10895,28 +10895,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1120.268410297384</v>
+        <v>1202.882472033607</v>
       </c>
       <c r="AB5" t="n">
-        <v>1532.80066172306</v>
+        <v>1645.836865665737</v>
       </c>
       <c r="AC5" t="n">
-        <v>1386.512317867451</v>
+        <v>1488.760505153147</v>
       </c>
       <c r="AD5" t="n">
-        <v>1120268.410297384</v>
+        <v>1202882.472033607</v>
       </c>
       <c r="AE5" t="n">
-        <v>1532800.66172306</v>
+        <v>1645836.865665737</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.378370283998969e-06</v>
+        <v>2.343138129407228e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.81770833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1386512.317867451</v>
+        <v>1488760.505153147</v>
       </c>
     </row>
     <row r="6">
@@ -11001,28 +11001,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1041.885493008115</v>
+        <v>1114.162218929039</v>
       </c>
       <c r="AB6" t="n">
-        <v>1425.553696277625</v>
+        <v>1524.445901306741</v>
       </c>
       <c r="AC6" t="n">
-        <v>1289.500852282067</v>
+        <v>1378.954924059285</v>
       </c>
       <c r="AD6" t="n">
-        <v>1041885.493008114</v>
+        <v>1114162.218929039</v>
       </c>
       <c r="AE6" t="n">
-        <v>1425553.696277625</v>
+        <v>1524445.901306741</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.43022621916785e-06</v>
+        <v>2.431289782370725e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.27951388888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>1289500.852282067</v>
+        <v>1378954.924059285</v>
       </c>
     </row>
     <row r="7">
@@ -11107,28 +11107,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>973.8238728218984</v>
+        <v>1056.35259370355</v>
       </c>
       <c r="AB7" t="n">
-        <v>1332.428784872079</v>
+        <v>1445.348221692558</v>
       </c>
       <c r="AC7" t="n">
-        <v>1205.263651719432</v>
+        <v>1307.406215973189</v>
       </c>
       <c r="AD7" t="n">
-        <v>973823.8728218983</v>
+        <v>1056352.59370355</v>
       </c>
       <c r="AE7" t="n">
-        <v>1332428.78487208</v>
+        <v>1445348.221692558</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.465706595862348e-06</v>
+        <v>2.491604071240487e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.93446180555555</v>
       </c>
       <c r="AH7" t="n">
-        <v>1205263.651719432</v>
+        <v>1307406.215973189</v>
       </c>
     </row>
     <row r="8">
@@ -11213,28 +11213,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>926.3262849092065</v>
+        <v>998.6882621761521</v>
       </c>
       <c r="AB8" t="n">
-        <v>1267.440489644245</v>
+        <v>1366.44933932601</v>
       </c>
       <c r="AC8" t="n">
-        <v>1146.477748176497</v>
+        <v>1236.037332204427</v>
       </c>
       <c r="AD8" t="n">
-        <v>926326.2849092064</v>
+        <v>998688.2621761521</v>
       </c>
       <c r="AE8" t="n">
-        <v>1267440.489644245</v>
+        <v>1366449.33932601</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.491681619649301e-06</v>
+        <v>2.535759890147792e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.69140625</v>
       </c>
       <c r="AH8" t="n">
-        <v>1146477.748176497</v>
+        <v>1236037.332204427</v>
       </c>
     </row>
     <row r="9">
@@ -11319,28 +11319,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>899.905696924681</v>
+        <v>972.2676741916267</v>
       </c>
       <c r="AB9" t="n">
-        <v>1231.290675569739</v>
+        <v>1330.299525251504</v>
       </c>
       <c r="AC9" t="n">
-        <v>1113.778021620679</v>
+        <v>1203.337605648609</v>
       </c>
       <c r="AD9" t="n">
-        <v>899905.6969246811</v>
+        <v>972267.6741916267</v>
       </c>
       <c r="AE9" t="n">
-        <v>1231290.675569739</v>
+        <v>1330299.525251504</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.502504546227198e-06</v>
+        <v>2.554158148025836e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>13.59375</v>
       </c>
       <c r="AH9" t="n">
-        <v>1113778.021620679</v>
+        <v>1203337.60564861</v>
       </c>
     </row>
     <row r="10">
@@ -11425,28 +11425,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>895.7177259252625</v>
+        <v>968.0797031922079</v>
       </c>
       <c r="AB10" t="n">
-        <v>1225.560508888093</v>
+        <v>1324.569358569858</v>
       </c>
       <c r="AC10" t="n">
-        <v>1108.59473400479</v>
+        <v>1198.154318032721</v>
       </c>
       <c r="AD10" t="n">
-        <v>895717.7259252624</v>
+        <v>968079.703192208</v>
       </c>
       <c r="AE10" t="n">
-        <v>1225560.508888093</v>
+        <v>1324569.358569858</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.506739604453332e-06</v>
+        <v>2.56135746632594e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>14</v>
+        <v>13.5546875</v>
       </c>
       <c r="AH10" t="n">
-        <v>1108594.73400479</v>
+        <v>1198154.318032721</v>
       </c>
     </row>
     <row r="11">
@@ -11531,28 +11531,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>898.7342841849675</v>
+        <v>971.0962614519131</v>
       </c>
       <c r="AB11" t="n">
-        <v>1229.68789698018</v>
+        <v>1328.696746661945</v>
       </c>
       <c r="AC11" t="n">
-        <v>1112.328209970194</v>
+        <v>1201.887793998124</v>
       </c>
       <c r="AD11" t="n">
-        <v>898734.2841849675</v>
+        <v>971096.261451913</v>
       </c>
       <c r="AE11" t="n">
-        <v>1229687.89698018</v>
+        <v>1328696.746661945</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.506363154833231e-06</v>
+        <v>2.560717526921486e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>14</v>
+        <v>13.55902777777778</v>
       </c>
       <c r="AH11" t="n">
-        <v>1112328.209970194</v>
+        <v>1201887.793998124</v>
       </c>
     </row>
   </sheetData>
@@ -11828,28 +11828,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1476.869244871363</v>
+        <v>1572.950708482903</v>
       </c>
       <c r="AB2" t="n">
-        <v>2020.717655705683</v>
+        <v>2152.180553034006</v>
       </c>
       <c r="AC2" t="n">
-        <v>1827.863198740174</v>
+        <v>1946.779461656817</v>
       </c>
       <c r="AD2" t="n">
-        <v>1476869.244871363</v>
+        <v>1572950.708482903</v>
       </c>
       <c r="AE2" t="n">
-        <v>2020717.655705683</v>
+        <v>2152180.553034006</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.116403954581854e-06</v>
+        <v>2.013140515878664e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.79166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1827863.198740174</v>
+        <v>1946779.461656817</v>
       </c>
     </row>
     <row r="3">
@@ -11934,28 +11934,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>935.892982365523</v>
+        <v>1012.587561054163</v>
       </c>
       <c r="AB3" t="n">
-        <v>1280.530067156882</v>
+        <v>1385.466973244693</v>
       </c>
       <c r="AC3" t="n">
-        <v>1158.318074782665</v>
+        <v>1253.239949833329</v>
       </c>
       <c r="AD3" t="n">
-        <v>935892.982365523</v>
+        <v>1012587.561054163</v>
       </c>
       <c r="AE3" t="n">
-        <v>1280530.067156882</v>
+        <v>1385466.973244693</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.445776211131994e-06</v>
+        <v>2.607076637070409e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.28211805555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>1158318.074782665</v>
+        <v>1253239.949833329</v>
       </c>
     </row>
     <row r="4">
@@ -12040,28 +12040,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>787.8484947071527</v>
+        <v>855.0202678892098</v>
       </c>
       <c r="AB4" t="n">
-        <v>1077.969067880857</v>
+        <v>1169.876451358034</v>
       </c>
       <c r="AC4" t="n">
-        <v>975.0892129813967</v>
+        <v>1058.225084772334</v>
       </c>
       <c r="AD4" t="n">
-        <v>787848.4947071527</v>
+        <v>855020.2678892098</v>
       </c>
       <c r="AE4" t="n">
-        <v>1077969.067880858</v>
+        <v>1169876.451358034</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.563983688675955e-06</v>
+        <v>2.820232691692856e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.12760416666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>975089.2129813967</v>
+        <v>1058225.084772334</v>
       </c>
     </row>
     <row r="5">
@@ -12146,28 +12146,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>736.6336475142924</v>
+        <v>803.8906720423703</v>
       </c>
       <c r="AB5" t="n">
-        <v>1007.894654511991</v>
+        <v>1099.918682641817</v>
       </c>
       <c r="AC5" t="n">
-        <v>911.7026032743983</v>
+        <v>994.9439873160483</v>
       </c>
       <c r="AD5" t="n">
-        <v>736633.6475142924</v>
+        <v>803890.6720423703</v>
       </c>
       <c r="AE5" t="n">
-        <v>1007894.654511991</v>
+        <v>1099918.682641817</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.596564561039493e-06</v>
+        <v>2.878983714500076e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.83897569444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>911702.6032743983</v>
+        <v>994943.9873160482</v>
       </c>
     </row>
     <row r="6">
@@ -12252,28 +12252,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>741.6338001517547</v>
+        <v>808.8908246798328</v>
       </c>
       <c r="AB6" t="n">
-        <v>1014.736083941733</v>
+        <v>1106.760112071559</v>
       </c>
       <c r="AC6" t="n">
-        <v>917.891096281372</v>
+        <v>1001.132480323022</v>
       </c>
       <c r="AD6" t="n">
-        <v>741633.8001517548</v>
+        <v>808890.8246798328</v>
       </c>
       <c r="AE6" t="n">
-        <v>1014736.083941733</v>
+        <v>1106760.112071559</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.595750039230405e-06</v>
+        <v>2.877514938929896e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.84765625</v>
       </c>
       <c r="AH6" t="n">
-        <v>917891.096281372</v>
+        <v>1001132.480323022</v>
       </c>
     </row>
   </sheetData>
@@ -12549,28 +12549,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1055.313787857389</v>
+        <v>1138.579272352675</v>
       </c>
       <c r="AB2" t="n">
-        <v>1443.926881704961</v>
+        <v>1557.85439100533</v>
       </c>
       <c r="AC2" t="n">
-        <v>1306.120526679145</v>
+        <v>1409.174954390151</v>
       </c>
       <c r="AD2" t="n">
-        <v>1055313.787857389</v>
+        <v>1138579.272352675</v>
       </c>
       <c r="AE2" t="n">
-        <v>1443926.88170496</v>
+        <v>1557854.39100533</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.310979417328052e-06</v>
+        <v>2.445868547683873e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.55642361111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>1306120.526679145</v>
+        <v>1409174.954390151</v>
       </c>
     </row>
     <row r="3">
@@ -12655,28 +12655,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>716.7795317789617</v>
+        <v>781.4563239292748</v>
       </c>
       <c r="AB3" t="n">
-        <v>980.7293774611435</v>
+        <v>1069.223017819893</v>
       </c>
       <c r="AC3" t="n">
-        <v>887.1299421385776</v>
+        <v>967.1778736630924</v>
       </c>
       <c r="AD3" t="n">
-        <v>716779.5317789617</v>
+        <v>781456.3239292748</v>
       </c>
       <c r="AE3" t="n">
-        <v>980729.3774611435</v>
+        <v>1069223.017819893</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.594365632286433e-06</v>
+        <v>2.974576642450583e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.43576388888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>887129.9421385776</v>
+        <v>967177.8736630925</v>
       </c>
     </row>
     <row r="4">
@@ -12761,28 +12761,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>682.5004179052693</v>
+        <v>747.1772100555826</v>
       </c>
       <c r="AB4" t="n">
-        <v>933.8271815713858</v>
+        <v>1022.320821930135</v>
       </c>
       <c r="AC4" t="n">
-        <v>844.7040259968929</v>
+        <v>924.7519575214078</v>
       </c>
       <c r="AD4" t="n">
-        <v>682500.4179052693</v>
+        <v>747177.2100555826</v>
       </c>
       <c r="AE4" t="n">
-        <v>933827.1815713858</v>
+        <v>1022320.821930135</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.628940447434799e-06</v>
+        <v>3.039082195928857e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.12977430555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>844704.0259968929</v>
+        <v>924751.9575214077</v>
       </c>
     </row>
     <row r="5">
@@ -12867,28 +12867,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>686.8938747492143</v>
+        <v>751.5706668995273</v>
       </c>
       <c r="AB5" t="n">
-        <v>939.8385030509075</v>
+        <v>1028.332143409657</v>
       </c>
       <c r="AC5" t="n">
-        <v>850.1416353913518</v>
+        <v>930.1895669158665</v>
       </c>
       <c r="AD5" t="n">
-        <v>686893.8747492143</v>
+        <v>751570.6668995273</v>
       </c>
       <c r="AE5" t="n">
-        <v>939838.5030509075</v>
+        <v>1028332.143409657</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.629046505149978e-06</v>
+        <v>3.039280065724803e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.12760416666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>850141.6353913518</v>
+        <v>930189.5669158666</v>
       </c>
     </row>
   </sheetData>
@@ -23281,28 +23281,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>802.684540670374</v>
+        <v>874.3338704962948</v>
       </c>
       <c r="AB2" t="n">
-        <v>1098.268400487891</v>
+        <v>1196.30217450106</v>
       </c>
       <c r="AC2" t="n">
-        <v>993.4512057747071</v>
+        <v>1082.128773987325</v>
       </c>
       <c r="AD2" t="n">
-        <v>802684.5406703739</v>
+        <v>874333.8704962948</v>
       </c>
       <c r="AE2" t="n">
-        <v>1098268.400487891</v>
+        <v>1196302.17450106</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.474636617733717e-06</v>
+        <v>2.835780900747852e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.14583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>993451.2057747071</v>
+        <v>1082128.773987325</v>
       </c>
     </row>
     <row r="3">
@@ -23387,28 +23387,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>639.8564437505112</v>
+        <v>711.5056840678812</v>
       </c>
       <c r="AB3" t="n">
-        <v>875.4798148134828</v>
+        <v>973.5134663571031</v>
       </c>
       <c r="AC3" t="n">
-        <v>791.9252500313206</v>
+        <v>880.6027074627119</v>
       </c>
       <c r="AD3" t="n">
-        <v>639856.4437505112</v>
+        <v>711505.6840678812</v>
       </c>
       <c r="AE3" t="n">
-        <v>875479.8148134828</v>
+        <v>973513.4663571031</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.638546081828217e-06</v>
+        <v>3.150984878555849e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.53125</v>
       </c>
       <c r="AH3" t="n">
-        <v>791925.2500313206</v>
+        <v>880602.707462712</v>
       </c>
     </row>
     <row r="4">
@@ -23493,28 +23493,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>645.0105953666091</v>
+        <v>716.6598356839791</v>
       </c>
       <c r="AB4" t="n">
-        <v>882.5319524397493</v>
+        <v>980.5656039833694</v>
       </c>
       <c r="AC4" t="n">
-        <v>798.3043415402735</v>
+        <v>886.9817989716648</v>
       </c>
       <c r="AD4" t="n">
-        <v>645010.595366609</v>
+        <v>716659.8356839791</v>
       </c>
       <c r="AE4" t="n">
-        <v>882531.9524397493</v>
+        <v>980565.6039833694</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.63843637000486e-06</v>
+        <v>3.150773898651025e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.53125</v>
       </c>
       <c r="AH4" t="n">
-        <v>798304.3415402735</v>
+        <v>886981.7989716649</v>
       </c>
     </row>
   </sheetData>
@@ -23790,28 +23790,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>581.728366079879</v>
+        <v>648.8596487346796</v>
       </c>
       <c r="AB2" t="n">
-        <v>795.9464145147255</v>
+        <v>887.7983970661933</v>
       </c>
       <c r="AC2" t="n">
-        <v>719.9824058312481</v>
+        <v>803.068164083071</v>
       </c>
       <c r="AD2" t="n">
-        <v>581728.366079879</v>
+        <v>648859.6487346796</v>
       </c>
       <c r="AE2" t="n">
-        <v>795946.4145147254</v>
+        <v>887798.3970661933</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.581557388696872e-06</v>
+        <v>3.262119196622399e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.15668402777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>719982.4058312482</v>
+        <v>803068.1640830711</v>
       </c>
     </row>
   </sheetData>
@@ -24087,28 +24087,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1988.058052101851</v>
+        <v>2096.985286427891</v>
       </c>
       <c r="AB2" t="n">
-        <v>2720.148733816965</v>
+        <v>2869.187781352275</v>
       </c>
       <c r="AC2" t="n">
-        <v>2460.541556414199</v>
+        <v>2595.356526430356</v>
       </c>
       <c r="AD2" t="n">
-        <v>1988058.052101851</v>
+        <v>2096985.286427891</v>
       </c>
       <c r="AE2" t="n">
-        <v>2720148.733816965</v>
+        <v>2869187.781352275</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.586699961979277e-07</v>
+        <v>1.684345365920752e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.29166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2460541.556414199</v>
+        <v>2595356.526430356</v>
       </c>
     </row>
     <row r="3">
@@ -24193,28 +24193,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1157.403956330538</v>
+        <v>1236.600512746016</v>
       </c>
       <c r="AB3" t="n">
-        <v>1583.611154110287</v>
+        <v>1691.971376503427</v>
       </c>
       <c r="AC3" t="n">
-        <v>1432.473528174215</v>
+        <v>1530.49200302668</v>
       </c>
       <c r="AD3" t="n">
-        <v>1157403.956330538</v>
+        <v>1236600.512746016</v>
       </c>
       <c r="AE3" t="n">
-        <v>1583611.154110287</v>
+        <v>1691971.376503427</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.319389893072402e-06</v>
+        <v>2.318115995131612e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.19791666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1432473.528174215</v>
+        <v>1530492.00302668</v>
       </c>
     </row>
     <row r="4">
@@ -24299,28 +24299,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>960.36782793979</v>
+        <v>1039.564294846718</v>
       </c>
       <c r="AB4" t="n">
-        <v>1314.017630625576</v>
+        <v>1422.377730549166</v>
       </c>
       <c r="AC4" t="n">
-        <v>1188.609632193997</v>
+        <v>1286.627996265236</v>
       </c>
       <c r="AD4" t="n">
-        <v>960367.82793979</v>
+        <v>1039564.294846718</v>
       </c>
       <c r="AE4" t="n">
-        <v>1314017.630625576</v>
+        <v>1422377.730549166</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.451742484227001e-06</v>
+        <v>2.550654276774908e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.72222222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>1188609.632193998</v>
+        <v>1286627.996265236</v>
       </c>
     </row>
     <row r="5">
@@ -24405,28 +24405,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>866.9000279489798</v>
+        <v>936.186358394271</v>
       </c>
       <c r="AB5" t="n">
-        <v>1186.130863169836</v>
+        <v>1280.931477182252</v>
       </c>
       <c r="AC5" t="n">
-        <v>1072.928198334028</v>
+        <v>1158.681174798597</v>
       </c>
       <c r="AD5" t="n">
-        <v>866900.0279489798</v>
+        <v>936186.358394271</v>
       </c>
       <c r="AE5" t="n">
-        <v>1186130.863169836</v>
+        <v>1280931.477182252</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.522054798277881e-06</v>
+        <v>2.67419023889791e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.04079861111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>1072928.198334028</v>
+        <v>1158681.174798597</v>
       </c>
     </row>
     <row r="6">
@@ -24511,28 +24511,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>801.4163437110002</v>
+        <v>870.7879255023117</v>
       </c>
       <c r="AB6" t="n">
-        <v>1096.533197459175</v>
+        <v>1191.45045612424</v>
       </c>
       <c r="AC6" t="n">
-        <v>991.881608087679</v>
+        <v>1077.740096802959</v>
       </c>
       <c r="AD6" t="n">
-        <v>801416.3437110002</v>
+        <v>870787.9255023118</v>
       </c>
       <c r="AE6" t="n">
-        <v>1096533.197459175</v>
+        <v>1191450.45612424</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.557309431933644e-06</v>
+        <v>2.736131239514204e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.72178819444444</v>
       </c>
       <c r="AH6" t="n">
-        <v>991881.6080876789</v>
+        <v>1077740.096802959</v>
       </c>
     </row>
     <row r="7">
@@ -24617,28 +24617,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>796.2045296290033</v>
+        <v>865.5761114203151</v>
       </c>
       <c r="AB7" t="n">
-        <v>1089.402163503177</v>
+        <v>1184.319422168242</v>
       </c>
       <c r="AC7" t="n">
-        <v>985.4311500039726</v>
+        <v>1071.289638719253</v>
       </c>
       <c r="AD7" t="n">
-        <v>796204.5296290034</v>
+        <v>865576.1114203151</v>
       </c>
       <c r="AE7" t="n">
-        <v>1089402.163503177</v>
+        <v>1184319.422168242</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.562627169971106e-06</v>
+        <v>2.745474295473086e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.67621527777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>985431.1500039726</v>
+        <v>1071289.638719253</v>
       </c>
     </row>
     <row r="8">
@@ -24723,28 +24723,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>799.9070388987924</v>
+        <v>869.278620690104</v>
       </c>
       <c r="AB8" t="n">
-        <v>1094.468100029283</v>
+        <v>1189.385358694348</v>
       </c>
       <c r="AC8" t="n">
-        <v>990.0136006581135</v>
+        <v>1075.872089373394</v>
       </c>
       <c r="AD8" t="n">
-        <v>799907.0388987924</v>
+        <v>869278.6206901041</v>
       </c>
       <c r="AE8" t="n">
-        <v>1094468.100029283</v>
+        <v>1189385.358694348</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.562528693340783e-06</v>
+        <v>2.745301275918292e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.67621527777778</v>
       </c>
       <c r="AH8" t="n">
-        <v>990013.6006581136</v>
+        <v>1075872.089373394</v>
       </c>
     </row>
   </sheetData>
@@ -25020,28 +25020,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2886.076650392913</v>
+        <v>3019.344187088294</v>
       </c>
       <c r="AB2" t="n">
-        <v>3948.857397783496</v>
+        <v>4131.199920838903</v>
       </c>
       <c r="AC2" t="n">
-        <v>3571.983989995057</v>
+        <v>3736.923998569387</v>
       </c>
       <c r="AD2" t="n">
-        <v>2886076.650392913</v>
+        <v>3019344.187088294</v>
       </c>
       <c r="AE2" t="n">
-        <v>3948857.397783496</v>
+        <v>4131199.920838904</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.819365688929093e-07</v>
+        <v>1.337024391922491e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.33680555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>3571983.989995057</v>
+        <v>3736923.998569387</v>
       </c>
     </row>
     <row r="3">
@@ -25126,28 +25126,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1466.200235694814</v>
+        <v>1558.350804445962</v>
       </c>
       <c r="AB3" t="n">
-        <v>2006.119846666862</v>
+        <v>2132.204320228355</v>
       </c>
       <c r="AC3" t="n">
-        <v>1814.658584107865</v>
+        <v>1928.709732473319</v>
       </c>
       <c r="AD3" t="n">
-        <v>1466200.235694814</v>
+        <v>1558350.804445962</v>
       </c>
       <c r="AE3" t="n">
-        <v>2006119.846666862</v>
+        <v>2132204.320228355</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.17717513799958e-06</v>
+        <v>2.012838298761954e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.49348958333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1814658.584107865</v>
+        <v>1928709.732473319</v>
       </c>
     </row>
     <row r="4">
@@ -25232,28 +25232,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1198.199406157678</v>
+        <v>1280.262660337003</v>
       </c>
       <c r="AB4" t="n">
-        <v>1639.429288332005</v>
+        <v>1751.711853075418</v>
       </c>
       <c r="AC4" t="n">
-        <v>1482.964458007056</v>
+        <v>1584.530932360926</v>
       </c>
       <c r="AD4" t="n">
-        <v>1198199.406157678</v>
+        <v>1280262.660337003</v>
       </c>
       <c r="AE4" t="n">
-        <v>1639429.288332005</v>
+        <v>1751711.853075418</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.325211672887073e-06</v>
+        <v>2.265964275873494e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.54036458333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1482964.458007056</v>
+        <v>1584530.932360926</v>
       </c>
     </row>
     <row r="5">
@@ -25338,28 +25338,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1070.844178638083</v>
+        <v>1152.822091962836</v>
       </c>
       <c r="AB5" t="n">
-        <v>1465.176247523592</v>
+        <v>1577.342045144808</v>
       </c>
       <c r="AC5" t="n">
-        <v>1325.341882847719</v>
+        <v>1426.802734169651</v>
       </c>
       <c r="AD5" t="n">
-        <v>1070844.178638083</v>
+        <v>1152822.091962836</v>
       </c>
       <c r="AE5" t="n">
-        <v>1465176.247523592</v>
+        <v>1577342.045144808</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.405398129284465e-06</v>
+        <v>2.403074180142245e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.65277777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>1325341.882847719</v>
+        <v>1426802.734169651</v>
       </c>
     </row>
     <row r="6">
@@ -25444,28 +25444,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>994.7151482171154</v>
+        <v>1066.435244278004</v>
       </c>
       <c r="AB6" t="n">
-        <v>1361.013149525838</v>
+        <v>1459.143749023675</v>
       </c>
       <c r="AC6" t="n">
-        <v>1231.119964729044</v>
+        <v>1319.885117537969</v>
       </c>
       <c r="AD6" t="n">
-        <v>994715.1482171153</v>
+        <v>1066435.244278004</v>
       </c>
       <c r="AE6" t="n">
-        <v>1361013.149525838</v>
+        <v>1459143.749023675</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.455218116986986e-06</v>
+        <v>2.488260807054782e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.15147569444444</v>
       </c>
       <c r="AH6" t="n">
-        <v>1231119.964729044</v>
+        <v>1319885.117537969</v>
       </c>
     </row>
     <row r="7">
@@ -25550,28 +25550,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>928.3978316323743</v>
+        <v>1000.203179039283</v>
       </c>
       <c r="AB7" t="n">
-        <v>1270.274871261075</v>
+        <v>1368.522115411561</v>
       </c>
       <c r="AC7" t="n">
-        <v>1149.041620389896</v>
+        <v>1237.912285449533</v>
       </c>
       <c r="AD7" t="n">
-        <v>928397.8316323743</v>
+        <v>1000203.179039283</v>
       </c>
       <c r="AE7" t="n">
-        <v>1270274.871261075</v>
+        <v>1368522.115411561</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.489285499054044e-06</v>
+        <v>2.546512233838784e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.828125</v>
       </c>
       <c r="AH7" t="n">
-        <v>1149041.620389896</v>
+        <v>1237912.285449533</v>
       </c>
     </row>
     <row r="8">
@@ -25656,28 +25656,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>882.6348083945979</v>
+        <v>954.440155801507</v>
       </c>
       <c r="AB8" t="n">
-        <v>1207.659883945052</v>
+        <v>1305.907128095538</v>
       </c>
       <c r="AC8" t="n">
-        <v>1092.402519582628</v>
+        <v>1181.273184642265</v>
       </c>
       <c r="AD8" t="n">
-        <v>882634.808394598</v>
+        <v>954440.1558015069</v>
       </c>
       <c r="AE8" t="n">
-        <v>1207659.883945052</v>
+        <v>1305907.128095538</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.512345036219211e-06</v>
+        <v>2.585941472581158e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.61762152777778</v>
       </c>
       <c r="AH8" t="n">
-        <v>1092402.519582628</v>
+        <v>1181273.184642265</v>
       </c>
     </row>
     <row r="9">
@@ -25762,28 +25762,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>875.33159014603</v>
+        <v>947.1369375529389</v>
       </c>
       <c r="AB9" t="n">
-        <v>1197.667298542112</v>
+        <v>1295.914542692598</v>
       </c>
       <c r="AC9" t="n">
-        <v>1083.363612505863</v>
+        <v>1172.2342775655</v>
       </c>
       <c r="AD9" t="n">
-        <v>875331.59014603</v>
+        <v>947136.9375529389</v>
       </c>
       <c r="AE9" t="n">
-        <v>1197667.298542112</v>
+        <v>1295914.542692598</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.516520425664756e-06</v>
+        <v>2.593080923217638e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>13.57855902777778</v>
       </c>
       <c r="AH9" t="n">
-        <v>1083363.612505863</v>
+        <v>1172234.2775655</v>
       </c>
     </row>
     <row r="10">
@@ -25868,28 +25868,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>878.5325419343666</v>
+        <v>950.3378893412754</v>
       </c>
       <c r="AB10" t="n">
-        <v>1202.04698199494</v>
+        <v>1300.294226145427</v>
       </c>
       <c r="AC10" t="n">
-        <v>1087.325305116877</v>
+        <v>1176.195970176514</v>
       </c>
       <c r="AD10" t="n">
-        <v>878532.5419343666</v>
+        <v>950337.8893412754</v>
       </c>
       <c r="AE10" t="n">
-        <v>1202046.98199494</v>
+        <v>1300294.226145427</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.516520425664756e-06</v>
+        <v>2.593080923217638e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>14</v>
+        <v>13.57855902777778</v>
       </c>
       <c r="AH10" t="n">
-        <v>1087325.305116877</v>
+        <v>1176195.970176514</v>
       </c>
     </row>
   </sheetData>
@@ -26165,28 +26165,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>564.4425110519074</v>
+        <v>645.6511140102368</v>
       </c>
       <c r="AB2" t="n">
-        <v>772.2951450673525</v>
+        <v>883.4083383056488</v>
       </c>
       <c r="AC2" t="n">
-        <v>698.5883803451674</v>
+        <v>799.097086369147</v>
       </c>
       <c r="AD2" t="n">
-        <v>564442.5110519074</v>
+        <v>645651.1140102368</v>
       </c>
       <c r="AE2" t="n">
-        <v>772295.1450673525</v>
+        <v>883408.3383056489</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.471509066583676e-06</v>
+        <v>3.154121692728779e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.98177083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>698588.3803451674</v>
+        <v>799097.0863691469</v>
       </c>
     </row>
   </sheetData>
@@ -26462,28 +26462,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1192.387032760901</v>
+        <v>1276.705977190594</v>
       </c>
       <c r="AB2" t="n">
-        <v>1631.476542626717</v>
+        <v>1746.845442284716</v>
       </c>
       <c r="AC2" t="n">
-        <v>1475.770711190132</v>
+        <v>1580.128964986039</v>
       </c>
       <c r="AD2" t="n">
-        <v>1192387.032760901</v>
+        <v>1276705.977190594</v>
       </c>
       <c r="AE2" t="n">
-        <v>1631476.542626717</v>
+        <v>1746845.442284716</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.240764523911978e-06</v>
+        <v>2.286024927258287e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.27907986111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>1475770.711190131</v>
+        <v>1580128.964986039</v>
       </c>
     </row>
     <row r="3">
@@ -26568,28 +26568,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>785.7228465330479</v>
+        <v>860.6634574791117</v>
       </c>
       <c r="AB3" t="n">
-        <v>1075.060662272069</v>
+        <v>1177.597712314892</v>
       </c>
       <c r="AC3" t="n">
-        <v>972.4583815219378</v>
+        <v>1065.209439420327</v>
       </c>
       <c r="AD3" t="n">
-        <v>785722.846533048</v>
+        <v>860663.4574791117</v>
       </c>
       <c r="AE3" t="n">
-        <v>1075060.662272069</v>
+        <v>1177597.712314892</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.543744338165754e-06</v>
+        <v>2.844244794519218e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.69184027777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>972458.3815219378</v>
+        <v>1065209.439420327</v>
       </c>
     </row>
     <row r="4">
@@ -26674,28 +26674,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>706.4448734355881</v>
+        <v>772.0073299151233</v>
       </c>
       <c r="AB4" t="n">
-        <v>966.5890419827919</v>
+        <v>1056.294487349536</v>
       </c>
       <c r="AC4" t="n">
-        <v>874.3391404321942</v>
+        <v>955.4832239955193</v>
       </c>
       <c r="AD4" t="n">
-        <v>706444.8734355881</v>
+        <v>772007.3299151233</v>
       </c>
       <c r="AE4" t="n">
-        <v>966589.0419827919</v>
+        <v>1056294.487349536</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.616902623773772e-06</v>
+        <v>2.979034000135863e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.02777777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>874339.1404321942</v>
+        <v>955483.2239955193</v>
       </c>
     </row>
     <row r="5">
@@ -26780,28 +26780,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>708.6964627513876</v>
+        <v>774.2589192309229</v>
       </c>
       <c r="AB5" t="n">
-        <v>969.6697658177789</v>
+        <v>1059.375211184523</v>
       </c>
       <c r="AC5" t="n">
-        <v>877.1258443081933</v>
+        <v>958.2699278715182</v>
       </c>
       <c r="AD5" t="n">
-        <v>708696.4627513876</v>
+        <v>774258.9192309228</v>
       </c>
       <c r="AE5" t="n">
-        <v>969669.7658177789</v>
+        <v>1059375.211184523</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.618574813159098e-06</v>
+        <v>2.982114896264243e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.01258680555555</v>
       </c>
       <c r="AH5" t="n">
-        <v>877125.8443081933</v>
+        <v>958269.9278715182</v>
       </c>
     </row>
   </sheetData>
@@ -27077,28 +27077,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1636.089497150702</v>
+        <v>1742.855562946057</v>
       </c>
       <c r="AB2" t="n">
-        <v>2238.569829176055</v>
+        <v>2384.651870583653</v>
       </c>
       <c r="AC2" t="n">
-        <v>2024.923866531979</v>
+        <v>2157.064042935069</v>
       </c>
       <c r="AD2" t="n">
-        <v>1636089.497150702</v>
+        <v>1742855.562946056</v>
       </c>
       <c r="AE2" t="n">
-        <v>2238569.829176054</v>
+        <v>2384651.870583653</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.060561119488625e-06</v>
+        <v>1.894615042039485e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.59027777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>2024923.866531979</v>
+        <v>2157064.042935069</v>
       </c>
     </row>
     <row r="3">
@@ -27183,28 +27183,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1007.149632485176</v>
+        <v>1084.859746412395</v>
       </c>
       <c r="AB3" t="n">
-        <v>1378.026559472129</v>
+        <v>1484.352965675617</v>
       </c>
       <c r="AC3" t="n">
-        <v>1246.509638708532</v>
+        <v>1342.688401934008</v>
       </c>
       <c r="AD3" t="n">
-        <v>1007149.632485176</v>
+        <v>1084859.746412395</v>
       </c>
       <c r="AE3" t="n">
-        <v>1378026.559472129</v>
+        <v>1484352.965675618</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.400262669715722e-06</v>
+        <v>2.501467070685149e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.59461805555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>1246509.638708532</v>
+        <v>1342688.401934007</v>
       </c>
     </row>
     <row r="4">
@@ -27289,28 +27289,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>845.0464815539067</v>
+        <v>912.9575798942028</v>
       </c>
       <c r="AB4" t="n">
-        <v>1156.229876881674</v>
+        <v>1249.148837657076</v>
       </c>
       <c r="AC4" t="n">
-        <v>1045.88092021091</v>
+        <v>1129.931825782489</v>
       </c>
       <c r="AD4" t="n">
-        <v>845046.4815539067</v>
+        <v>912957.5798942028</v>
       </c>
       <c r="AE4" t="n">
-        <v>1156229.876881674</v>
+        <v>1249148.837657077</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.525537678611674e-06</v>
+        <v>2.72526173172302e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.31423611111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>1045880.92021091</v>
+        <v>1129931.825782489</v>
       </c>
     </row>
     <row r="5">
@@ -27395,28 +27395,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>763.9160894245249</v>
+        <v>831.9124391108415</v>
       </c>
       <c r="AB5" t="n">
-        <v>1045.223695149961</v>
+        <v>1138.259300578014</v>
       </c>
       <c r="AC5" t="n">
-        <v>945.4690126655183</v>
+        <v>1029.62543048781</v>
       </c>
       <c r="AD5" t="n">
-        <v>763916.0894245249</v>
+        <v>831912.4391108416</v>
       </c>
       <c r="AE5" t="n">
-        <v>1045223.695149962</v>
+        <v>1138259.300578014</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.577861377106369e-06</v>
+        <v>2.818734200590243e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.83897569444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>945469.0126655183</v>
+        <v>1029625.430487809</v>
       </c>
     </row>
     <row r="6">
@@ -27501,28 +27501,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>756.5007756998245</v>
+        <v>824.4971253861411</v>
       </c>
       <c r="AB6" t="n">
-        <v>1035.077735771273</v>
+        <v>1128.113341199326</v>
       </c>
       <c r="AC6" t="n">
-        <v>936.2913694099886</v>
+        <v>1020.44778723228</v>
       </c>
       <c r="AD6" t="n">
-        <v>756500.7756998246</v>
+        <v>824497.1253861411</v>
       </c>
       <c r="AE6" t="n">
-        <v>1035077.735771273</v>
+        <v>1128113.341199326</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.586112421868994e-06</v>
+        <v>2.833474089911612e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.76736111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>936291.3694099886</v>
+        <v>1020447.78723228</v>
       </c>
     </row>
     <row r="7">
@@ -27607,28 +27607,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>760.5314085913577</v>
+        <v>828.5277582776746</v>
       </c>
       <c r="AB7" t="n">
-        <v>1040.592625512443</v>
+        <v>1133.628230940495</v>
       </c>
       <c r="AC7" t="n">
-        <v>941.2799258144571</v>
+        <v>1025.436343636748</v>
       </c>
       <c r="AD7" t="n">
-        <v>760531.4085913578</v>
+        <v>828527.7582776746</v>
       </c>
       <c r="AE7" t="n">
-        <v>1040592.625512443</v>
+        <v>1133628.230940495</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.586112421868994e-06</v>
+        <v>2.833474089911612e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.76736111111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>941279.9258144571</v>
+        <v>1025436.343636748</v>
       </c>
     </row>
   </sheetData>
